--- a/data/dme-extras.xlsx
+++ b/data/dme-extras.xlsx
@@ -1056,7 +1056,7 @@
     <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1081,6 +1081,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1102,10 +1109,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1256,7 +1264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1265,23 +1273,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1289,7 +1301,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,7 +1309,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1309,15 +1321,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1325,7 +1341,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1341,19 +1357,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1361,7 +1381,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1377,7 +1397,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1385,27 +1409,35 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1413,19 +1445,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1433,7 +1469,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1445,19 +1481,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1465,7 +1505,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1473,39 +1513,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1513,7 +1541,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1580,7 +1608,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1594,10 +1622,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1607,4207 +1635,4207 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="11.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="8" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="7" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="13.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.44"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+    <row r="2" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="21" t="n">
+      <c r="E2" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="H2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="n">
+      <c r="H2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="n">
         <v>6.1</v>
       </c>
-      <c r="K2" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="23" t="n">
+      <c r="K2" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="26" t="n">
         <v>0.26</v>
       </c>
-      <c r="N2" s="24" t="n">
+      <c r="N2" s="27" t="n">
         <v>506</v>
       </c>
-      <c r="O2" s="24" t="n">
+      <c r="O2" s="27" t="n">
         <v>667</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="Q2" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="21" t="n">
+      <c r="E3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="H3" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="21" t="n">
+      <c r="H3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="23" t="n">
+      <c r="J3" s="25"/>
+      <c r="K3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="26" t="n">
         <v>0.6</v>
       </c>
-      <c r="N3" s="24" t="n">
+      <c r="N3" s="27" t="n">
         <v>673</v>
       </c>
-      <c r="O3" s="24" t="n">
+      <c r="O3" s="27" t="n">
         <v>681</v>
       </c>
-      <c r="P3" s="25" t="n">
+      <c r="P3" s="28" t="n">
         <v>41607</v>
       </c>
-      <c r="Q3" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="Q3" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="21" t="n">
+      <c r="E4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="H4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="21" t="n">
+      <c r="H4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="J4" s="22" t="n">
+      <c r="J4" s="25" t="n">
         <v>6.4</v>
       </c>
-      <c r="K4" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="23" t="n">
+      <c r="K4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="26" t="n">
         <v>0.2</v>
       </c>
-      <c r="N4" s="24" t="n">
+      <c r="N4" s="27" t="n">
         <v>575</v>
       </c>
-      <c r="O4" s="24" t="n">
+      <c r="O4" s="27" t="n">
         <v>580</v>
       </c>
-      <c r="P4" s="25" t="n">
+      <c r="P4" s="28" t="n">
         <v>41823</v>
       </c>
-      <c r="Q4" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="Q4" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21" t="n">
+      <c r="E5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="H5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="21" t="n">
+      <c r="H5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24" t="n">
         <v>144</v>
       </c>
-      <c r="J5" s="22" t="n">
+      <c r="J5" s="25" t="n">
         <v>6.3</v>
       </c>
-      <c r="K5" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="23" t="n">
+      <c r="K5" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26" t="n">
         <v>0.6</v>
       </c>
-      <c r="N5" s="24" t="n">
+      <c r="N5" s="27" t="n">
         <v>682</v>
       </c>
-      <c r="O5" s="24" t="n">
+      <c r="O5" s="27" t="n">
         <v>714</v>
       </c>
-      <c r="P5" s="25" t="n">
+      <c r="P5" s="28" t="n">
         <v>41067</v>
       </c>
-      <c r="Q5" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="Q5" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="21" t="n">
+      <c r="E6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="24" t="n">
         <v>71</v>
       </c>
-      <c r="H6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21" t="n">
+      <c r="H6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24" t="n">
         <v>144</v>
       </c>
-      <c r="J6" s="22" t="n">
+      <c r="J6" s="25" t="n">
         <v>6.2</v>
       </c>
-      <c r="K6" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="23" t="n">
+      <c r="K6" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="26" t="n">
         <v>0.1</v>
       </c>
-      <c r="N6" s="24" t="n">
+      <c r="N6" s="27" t="n">
         <v>454</v>
       </c>
-      <c r="O6" s="24" t="n">
+      <c r="O6" s="27" t="n">
         <v>725</v>
       </c>
-      <c r="P6" s="25" t="n">
+      <c r="P6" s="28" t="n">
         <v>41830</v>
       </c>
-      <c r="Q6" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="Q6" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="21" t="n">
+      <c r="E7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="24" t="n">
         <v>48</v>
       </c>
-      <c r="H7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21" t="n">
+      <c r="H7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="22" t="n">
+      <c r="J7" s="25" t="n">
         <v>5.8</v>
       </c>
-      <c r="K7" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="23" t="n">
+      <c r="K7" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="26" t="n">
         <v>0.4</v>
       </c>
-      <c r="N7" s="24" t="n">
+      <c r="N7" s="27" t="n">
         <v>446</v>
       </c>
-      <c r="O7" s="24" t="n">
+      <c r="O7" s="27" t="n">
         <v>567</v>
       </c>
-      <c r="P7" s="25" t="n">
+      <c r="P7" s="28" t="n">
         <v>42552</v>
       </c>
-      <c r="Q7" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="Q7" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="21" t="n">
+      <c r="E8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="H8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21" t="n">
+      <c r="H8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="J8" s="22" t="n">
+      <c r="J8" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="K8" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="23" t="n">
+      <c r="K8" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="N8" s="24" t="n">
+      <c r="N8" s="27" t="n">
         <v>480</v>
       </c>
-      <c r="O8" s="24" t="n">
+      <c r="O8" s="27" t="n">
         <v>573</v>
       </c>
-      <c r="P8" s="25" t="n">
+      <c r="P8" s="28" t="n">
         <v>41151</v>
       </c>
-      <c r="Q8" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="Q8" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21" t="n">
+      <c r="E9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24" t="n">
         <v>68</v>
       </c>
-      <c r="H9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21" t="n">
+      <c r="H9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="22" t="n">
+      <c r="J9" s="25" t="n">
         <v>7.7</v>
       </c>
-      <c r="K9" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="24" t="n">
+      <c r="K9" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="27" t="n">
         <v>830</v>
       </c>
-      <c r="O9" s="24" t="n">
+      <c r="O9" s="27" t="n">
         <v>863</v>
       </c>
-      <c r="P9" s="25" t="n">
+      <c r="P9" s="28" t="n">
         <v>42223</v>
       </c>
-      <c r="Q9" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="Q9" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="21" t="n">
+      <c r="E10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="24" t="n">
         <v>80</v>
       </c>
-      <c r="H10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="21" t="n">
+      <c r="H10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24" t="n">
         <v>492</v>
       </c>
-      <c r="J10" s="22" t="n">
+      <c r="J10" s="25" t="n">
         <v>7.8</v>
       </c>
-      <c r="K10" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="23" t="n">
+      <c r="K10" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="26" t="n">
         <v>0.2</v>
       </c>
-      <c r="N10" s="24" t="n">
+      <c r="N10" s="27" t="n">
         <v>392</v>
       </c>
-      <c r="O10" s="24" t="n">
+      <c r="O10" s="27" t="n">
         <v>433</v>
       </c>
-      <c r="P10" s="25" t="n">
+      <c r="P10" s="28" t="n">
         <v>42124</v>
       </c>
-      <c r="Q10" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="Q10" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21" t="n">
+      <c r="E11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="H11" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="21" t="n">
+      <c r="H11" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="24" t="n">
         <v>108</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="23" t="n">
+      <c r="J11" s="25"/>
+      <c r="K11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="N11" s="24" t="n">
+      <c r="N11" s="27" t="n">
         <v>625</v>
       </c>
-      <c r="O11" s="24" t="n">
+      <c r="O11" s="27" t="n">
         <v>630</v>
       </c>
-      <c r="P11" s="25" t="n">
+      <c r="P11" s="28" t="n">
         <v>40704</v>
       </c>
-      <c r="Q11" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="Q11" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="21" t="n">
+      <c r="E12" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="24" t="n">
         <v>64</v>
       </c>
-      <c r="H12" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="21" t="n">
+      <c r="H12" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="J12" s="22" t="n">
+      <c r="J12" s="25" t="n">
         <v>8.4</v>
       </c>
-      <c r="K12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="24" t="n">
+      <c r="K12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="27" t="n">
         <v>436</v>
       </c>
-      <c r="O12" s="24" t="n">
+      <c r="O12" s="27" t="n">
         <v>745</v>
       </c>
-      <c r="P12" s="25" t="n">
+      <c r="P12" s="28" t="n">
         <v>41383</v>
       </c>
-      <c r="Q12" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="Q12" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="21" t="n">
+      <c r="E13" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="24" t="n">
         <v>59</v>
       </c>
-      <c r="H13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21" t="n">
+      <c r="H13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="24" t="n">
         <v>156</v>
       </c>
-      <c r="J13" s="22" t="n">
+      <c r="J13" s="25" t="n">
         <v>6.7</v>
       </c>
-      <c r="K13" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="23" t="n">
+      <c r="K13" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="26" t="n">
         <v>0.2</v>
       </c>
-      <c r="N13" s="24" t="n">
+      <c r="N13" s="27" t="n">
         <v>410</v>
       </c>
-      <c r="O13" s="24" t="n">
+      <c r="O13" s="27" t="n">
         <v>468</v>
       </c>
-      <c r="P13" s="25" t="n">
+      <c r="P13" s="28" t="n">
         <v>42033</v>
       </c>
-      <c r="Q13" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="Q13" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="21" t="n">
+      <c r="E14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="24" t="n">
         <v>79</v>
       </c>
-      <c r="H14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21" t="n">
+      <c r="H14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24" t="n">
         <v>240</v>
       </c>
-      <c r="J14" s="22" t="n">
+      <c r="J14" s="25" t="n">
         <v>6.3</v>
       </c>
-      <c r="K14" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="23" t="n">
+      <c r="K14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="N14" s="24" t="n">
+      <c r="N14" s="27" t="n">
         <v>423</v>
       </c>
-      <c r="O14" s="24" t="n">
+      <c r="O14" s="27" t="n">
         <v>442</v>
       </c>
-      <c r="P14" s="25" t="n">
+      <c r="P14" s="28" t="n">
         <v>42111</v>
       </c>
-      <c r="Q14" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="Q14" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="21" t="n">
+      <c r="E15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="H15" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="21" t="n">
+      <c r="H15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="24" t="n">
         <v>84</v>
       </c>
-      <c r="J15" s="22" t="n">
+      <c r="J15" s="25" t="n">
         <v>8.5</v>
       </c>
-      <c r="K15" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="23" t="n">
+      <c r="K15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="26" t="n">
         <v>0.1</v>
       </c>
-      <c r="N15" s="24" t="n">
+      <c r="N15" s="27" t="n">
         <v>573</v>
       </c>
-      <c r="O15" s="24" t="n">
+      <c r="O15" s="27" t="n">
         <v>660</v>
       </c>
-      <c r="P15" s="25" t="n">
+      <c r="P15" s="28" t="n">
         <v>42314</v>
       </c>
-      <c r="Q15" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="Q15" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21" t="n">
+      <c r="E16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="H16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21" t="n">
+      <c r="H16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="24" t="n">
         <v>276</v>
       </c>
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="25" t="n">
         <v>7.2</v>
       </c>
-      <c r="K16" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="23" t="n">
+      <c r="K16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="26" t="n">
         <v>0.22</v>
       </c>
-      <c r="N16" s="24" t="n">
+      <c r="N16" s="27" t="n">
         <v>354</v>
       </c>
-      <c r="O16" s="24" t="n">
+      <c r="O16" s="27" t="n">
         <v>404</v>
       </c>
-      <c r="P16" s="25" t="n">
+      <c r="P16" s="28" t="n">
         <v>41346</v>
       </c>
-      <c r="Q16" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="Q16" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21" t="n">
+      <c r="E17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="H17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="21" t="n">
+      <c r="H17" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J17" s="22" t="n">
+      <c r="J17" s="25" t="n">
         <v>13.3</v>
       </c>
-      <c r="K17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="23" t="n">
+      <c r="K17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="26" t="n">
         <v>0.7</v>
       </c>
-      <c r="N17" s="24" t="n">
+      <c r="N17" s="27" t="n">
         <v>796</v>
       </c>
-      <c r="O17" s="24" t="n">
+      <c r="O17" s="27" t="n">
         <v>805</v>
       </c>
-      <c r="P17" s="25" t="n">
+      <c r="P17" s="28" t="n">
         <v>42111</v>
       </c>
-      <c r="Q17" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="Q17" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="29" t="n">
+      <c r="E18" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="32" t="n">
         <v>59</v>
       </c>
-      <c r="H18" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="n">
+      <c r="H18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="32" t="n">
         <v>36</v>
       </c>
-      <c r="J18" s="29" t="n">
+      <c r="J18" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="K18" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="30" t="n">
+      <c r="K18" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="34" t="n">
         <v>0.22</v>
       </c>
-      <c r="N18" s="30" t="n">
+      <c r="N18" s="34" t="n">
         <v>321</v>
       </c>
-      <c r="O18" s="30" t="n">
+      <c r="O18" s="34" t="n">
         <v>370</v>
       </c>
-      <c r="P18" s="31" t="n">
+      <c r="P18" s="35" t="n">
         <v>42371</v>
       </c>
-      <c r="Q18" s="32" t="n">
+      <c r="Q18" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="19" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="19" t="s">
+    <row r="19" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="29" t="n">
+      <c r="E19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="32" t="n">
         <v>63</v>
       </c>
-      <c r="H19" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="29" t="n">
+      <c r="H19" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="33" t="n">
         <v>8.7</v>
       </c>
-      <c r="K19" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="30" t="n">
+      <c r="K19" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="N19" s="30" t="n">
+      <c r="N19" s="34" t="n">
         <v>446</v>
       </c>
-      <c r="O19" s="30" t="n">
+      <c r="O19" s="34" t="n">
         <v>557</v>
       </c>
-      <c r="P19" s="31" t="n">
+      <c r="P19" s="35" t="n">
         <v>42618</v>
       </c>
-      <c r="Q19" s="32" t="n">
+      <c r="Q19" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="20" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+    <row r="20" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="29" t="n">
+      <c r="E20" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="32" t="n">
         <v>63</v>
       </c>
-      <c r="H20" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="29" t="n">
+      <c r="H20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="33" t="n">
         <v>8.7</v>
       </c>
-      <c r="K20" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="30" t="n">
+      <c r="K20" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="34" t="n">
         <v>0.22</v>
       </c>
-      <c r="N20" s="30" t="n">
+      <c r="N20" s="34" t="n">
         <v>568</v>
       </c>
-      <c r="O20" s="30" t="n">
+      <c r="O20" s="34" t="n">
         <v>624</v>
       </c>
-      <c r="P20" s="31" t="n">
+      <c r="P20" s="35" t="n">
         <v>42618</v>
       </c>
-      <c r="Q20" s="32" t="n">
+      <c r="Q20" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
+    <row r="21" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="29" t="n">
+      <c r="E21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32" t="n">
         <v>53</v>
       </c>
-      <c r="H21" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="n">
+      <c r="H21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="32" t="n">
         <v>240</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="30" t="n">
+      <c r="J21" s="38"/>
+      <c r="K21" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="34" t="n">
         <v>0.52</v>
       </c>
-      <c r="N21" s="30" t="n">
+      <c r="N21" s="34" t="n">
         <v>651</v>
       </c>
-      <c r="O21" s="30" t="n">
+      <c r="O21" s="34" t="n">
         <v>711</v>
       </c>
-      <c r="P21" s="32" t="s">
+      <c r="P21" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="32" t="n">
+      <c r="Q21" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
+    <row r="22" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="29" t="n">
+      <c r="E22" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32" t="n">
         <v>53</v>
       </c>
-      <c r="H22" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="n">
+      <c r="H22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="32" t="n">
         <v>240</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="30" t="n">
+      <c r="J22" s="38"/>
+      <c r="K22" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="34" t="n">
         <v>469</v>
       </c>
-      <c r="O22" s="30" t="n">
+      <c r="O22" s="34" t="n">
         <v>537</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="32" t="n">
+      <c r="Q22" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+    <row r="23" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="29" t="n">
+      <c r="E23" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="32" t="n">
         <v>74</v>
       </c>
-      <c r="H23" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="30" t="n">
+      <c r="H23" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="34" t="n">
         <v>0.22</v>
       </c>
-      <c r="N23" s="30" t="n">
+      <c r="N23" s="34" t="n">
         <v>267</v>
       </c>
-      <c r="O23" s="30" t="n">
+      <c r="O23" s="34" t="n">
         <v>343</v>
       </c>
-      <c r="P23" s="31" t="n">
+      <c r="P23" s="35" t="n">
         <v>42648</v>
       </c>
-      <c r="Q23" s="32" t="n">
+      <c r="Q23" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+    <row r="24" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="29" t="n">
+      <c r="E24" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="32" t="n">
         <v>26</v>
       </c>
-      <c r="H24" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="n">
+      <c r="H24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32" t="n">
         <v>480</v>
       </c>
-      <c r="J24" s="29" t="n">
+      <c r="J24" s="33" t="n">
         <v>6.5</v>
       </c>
-      <c r="K24" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="30" t="n">
+      <c r="K24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="34" t="n">
         <v>0.3</v>
       </c>
-      <c r="N24" s="30" t="n">
+      <c r="N24" s="34" t="n">
         <v>367</v>
       </c>
-      <c r="O24" s="30" t="n">
+      <c r="O24" s="34" t="n">
         <v>399</v>
       </c>
-      <c r="P24" s="31" t="n">
+      <c r="P24" s="35" t="n">
         <v>42227</v>
       </c>
-      <c r="Q24" s="32" t="n">
+      <c r="Q24" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="25" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
+    <row r="25" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="29" t="n">
+      <c r="E25" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="32" t="n">
         <v>38</v>
       </c>
-      <c r="H25" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="n">
+      <c r="H25" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="32" t="n">
         <v>300</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="30" t="n">
+      <c r="J25" s="38"/>
+      <c r="K25" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="34" t="n">
         <v>0.14</v>
       </c>
-      <c r="N25" s="30" t="n">
+      <c r="N25" s="34" t="n">
         <v>314</v>
       </c>
-      <c r="O25" s="30" t="n">
+      <c r="O25" s="34" t="n">
         <v>385</v>
       </c>
-      <c r="P25" s="31" t="n">
+      <c r="P25" s="35" t="n">
         <v>42497</v>
       </c>
-      <c r="Q25" s="32" t="n">
+      <c r="Q25" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="26" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+    <row r="26" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="29" t="n">
+      <c r="E26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="H26" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="n">
+      <c r="H26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="32" t="n">
         <v>300</v>
       </c>
-      <c r="J26" s="29" t="n">
+      <c r="J26" s="33" t="n">
         <v>8.7</v>
       </c>
-      <c r="K26" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="30" t="n">
+      <c r="K26" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="34" t="n">
         <v>0.22</v>
       </c>
-      <c r="N26" s="30" t="n">
+      <c r="N26" s="34" t="n">
         <v>377</v>
       </c>
-      <c r="O26" s="30" t="n">
+      <c r="O26" s="34" t="n">
         <v>468</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="Q26" s="32" t="n">
+      <c r="Q26" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="27" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
+    <row r="27" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="29" t="n">
+      <c r="E27" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="H27" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="n">
+      <c r="H27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="32" t="n">
         <v>300</v>
       </c>
-      <c r="J27" s="29" t="n">
+      <c r="J27" s="33" t="n">
         <v>8.7</v>
       </c>
-      <c r="K27" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L27" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="30" t="n">
+      <c r="K27" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="34" t="n">
         <v>397</v>
       </c>
-      <c r="O27" s="30" t="n">
+      <c r="O27" s="34" t="n">
         <v>562</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="Q27" s="32" t="n">
+      <c r="Q27" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="S27" s="35" t="s">
+      <c r="S27" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
+    <row r="28" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="34" t="n">
+      <c r="E28" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="40" t="n">
         <v>56</v>
       </c>
-      <c r="H28" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="34" t="n">
+      <c r="H28" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40" t="n">
         <v>120</v>
       </c>
-      <c r="J28" s="34" t="n">
+      <c r="J28" s="42" t="n">
         <v>7.9</v>
       </c>
-      <c r="K28" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L28" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="30" t="n">
+      <c r="K28" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="34" t="n">
         <v>0.4</v>
       </c>
-      <c r="N28" s="30" t="n">
+      <c r="N28" s="34" t="n">
         <v>354</v>
       </c>
-      <c r="O28" s="30" t="n">
+      <c r="O28" s="34" t="n">
         <v>398</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="Q28" s="32" t="n">
+      <c r="Q28" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="29" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
+    <row r="29" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="34" t="n">
+      <c r="E29" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="40" t="n">
         <v>63</v>
       </c>
-      <c r="H29" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="34" t="n">
+      <c r="H29" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="42" t="n">
         <v>9.2</v>
       </c>
-      <c r="K29" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="30" t="n">
+      <c r="K29" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="34" t="n">
         <v>0.3</v>
       </c>
-      <c r="N29" s="30" t="n">
+      <c r="N29" s="34" t="n">
         <v>268</v>
       </c>
-      <c r="O29" s="30" t="n">
+      <c r="O29" s="34" t="n">
         <v>342</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="Q29" s="32" t="n">
+      <c r="Q29" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="30" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
+    <row r="30" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="34" t="n">
+      <c r="E30" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="40" t="n">
         <v>52</v>
       </c>
-      <c r="H30" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="34" t="n">
+      <c r="H30" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="40" t="n">
         <v>120</v>
       </c>
-      <c r="J30" s="34" t="n">
+      <c r="J30" s="42" t="n">
         <v>9.6</v>
       </c>
-      <c r="K30" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L30" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="30" t="n">
+      <c r="K30" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="34" t="n">
         <v>0.4</v>
       </c>
-      <c r="N30" s="30" t="n">
+      <c r="N30" s="34" t="n">
         <v>632</v>
       </c>
-      <c r="O30" s="30" t="n">
+      <c r="O30" s="34" t="n">
         <v>688</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="Q30" s="32" t="n">
+      <c r="Q30" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="31" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
+    <row r="31" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="34" t="n">
+      <c r="E31" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="40" t="n">
         <v>52</v>
       </c>
-      <c r="H31" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="34" t="n">
+      <c r="H31" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="40" t="n">
         <v>120</v>
       </c>
-      <c r="J31" s="34" t="n">
+      <c r="J31" s="42" t="n">
         <v>9.6</v>
       </c>
-      <c r="K31" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="30" t="n">
+      <c r="K31" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="34" t="n">
         <v>1.3</v>
       </c>
-      <c r="N31" s="30" t="n">
+      <c r="N31" s="34" t="n">
         <v>476</v>
       </c>
-      <c r="O31" s="30" t="n">
+      <c r="O31" s="34" t="n">
         <v>589</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="Q31" s="32" t="n">
+      <c r="Q31" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="32" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+    <row r="32" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="34" t="n">
+      <c r="E32" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40" t="n">
         <v>41</v>
       </c>
-      <c r="H32" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="34" t="n">
+      <c r="H32" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="40" t="n">
         <v>348</v>
       </c>
-      <c r="J32" s="34" t="n">
+      <c r="J32" s="42" t="n">
         <v>9.7</v>
       </c>
-      <c r="K32" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="30" t="n">
+      <c r="K32" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="34" t="n">
         <v>0.12</v>
       </c>
-      <c r="N32" s="30" t="n">
+      <c r="N32" s="34" t="n">
         <v>356</v>
       </c>
-      <c r="O32" s="30" t="n">
+      <c r="O32" s="34" t="n">
         <v>415</v>
       </c>
-      <c r="P32" s="31" t="n">
+      <c r="P32" s="35" t="n">
         <v>42047</v>
       </c>
-      <c r="Q32" s="32" t="n">
+      <c r="Q32" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="33" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
+    <row r="33" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="34" t="n">
+      <c r="E33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="H33" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="34" t="n">
+      <c r="H33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="42" t="n">
         <v>9.3</v>
       </c>
-      <c r="K33" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="30" t="n">
+      <c r="K33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="34" t="n">
         <v>0.16</v>
       </c>
-      <c r="N33" s="30" t="n">
+      <c r="N33" s="34" t="n">
         <v>343</v>
       </c>
-      <c r="O33" s="30" t="n">
+      <c r="O33" s="34" t="n">
         <v>383</v>
       </c>
-      <c r="P33" s="32" t="s">
+      <c r="P33" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="Q33" s="32" t="n">
+      <c r="Q33" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="34" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+    <row r="34" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" s="34" t="n">
+      <c r="E34" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="H34" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="34" t="n">
+      <c r="H34" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="42" t="n">
         <v>9.3</v>
       </c>
-      <c r="K34" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="30" t="n">
+      <c r="K34" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="34" t="n">
         <v>0.16</v>
       </c>
-      <c r="N34" s="30" t="n">
+      <c r="N34" s="34" t="n">
         <v>320</v>
       </c>
-      <c r="O34" s="30" t="n">
+      <c r="O34" s="34" t="n">
         <v>382</v>
       </c>
-      <c r="P34" s="32" t="s">
+      <c r="P34" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="Q34" s="32" t="n">
+      <c r="Q34" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="35" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
+    <row r="35" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="34" t="n">
+      <c r="E35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="H35" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="34" t="n">
+      <c r="H35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="40" t="n">
         <v>240</v>
       </c>
-      <c r="J35" s="34" t="n">
+      <c r="J35" s="42" t="n">
         <v>6.1</v>
       </c>
-      <c r="K35" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" s="30" t="n">
+      <c r="K35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" s="34" t="n">
         <v>0.16</v>
       </c>
-      <c r="N35" s="30" t="n">
+      <c r="N35" s="34" t="n">
         <v>440</v>
       </c>
-      <c r="O35" s="30" t="n">
+      <c r="O35" s="34" t="n">
         <v>532</v>
       </c>
-      <c r="P35" s="32" t="s">
+      <c r="P35" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q35" s="32" t="n">
+      <c r="Q35" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="36" s="18" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
+    <row r="36" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="34" t="n">
+      <c r="E36" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="H36" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="34" t="n">
+      <c r="H36" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="40" t="n">
         <v>240</v>
       </c>
-      <c r="J36" s="34" t="n">
+      <c r="J36" s="42" t="n">
         <v>6.1</v>
       </c>
-      <c r="K36" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M36" s="30" t="n">
+      <c r="K36" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="34" t="n">
         <v>0.7</v>
       </c>
-      <c r="N36" s="30" t="n">
+      <c r="N36" s="34" t="n">
         <v>478</v>
       </c>
-      <c r="O36" s="30" t="n">
+      <c r="O36" s="34" t="n">
         <v>544</v>
       </c>
-      <c r="P36" s="32" t="s">
+      <c r="P36" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q36" s="32" t="n">
+      <c r="Q36" s="36" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="37" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
+    <row r="37" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="39" t="n">
+      <c r="E37" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="46" t="n">
         <v>73</v>
       </c>
-      <c r="H37" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="41" t="s">
+      <c r="H37" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="46"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="N37" s="42" t="n">
+      <c r="N37" s="49" t="n">
         <v>396</v>
       </c>
-      <c r="O37" s="42" t="n">
+      <c r="O37" s="49" t="n">
         <v>417</v>
       </c>
-      <c r="P37" s="43" t="s">
+      <c r="P37" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="Q37" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="s">
+      <c r="Q37" s="51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="47" t="n">
+      <c r="E38" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="55" t="n">
         <v>63</v>
       </c>
-      <c r="H38" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" s="47" t="n">
+      <c r="H38" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="55" t="n">
         <v>84</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="K38" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" s="49" t="s">
+      <c r="K38" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="50" t="n">
+      <c r="N38" s="58" t="n">
         <v>270</v>
       </c>
-      <c r="O38" s="50" t="n">
+      <c r="O38" s="58" t="n">
         <v>486</v>
       </c>
-      <c r="P38" s="51" t="s">
+      <c r="P38" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="Q38" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="s">
+      <c r="Q38" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="47" t="n">
+      <c r="E39" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="55" t="n">
         <v>70</v>
       </c>
-      <c r="H39" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="49" t="s">
+      <c r="H39" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="N39" s="50" t="n">
+      <c r="N39" s="58" t="n">
         <v>504</v>
       </c>
-      <c r="O39" s="50" t="n">
+      <c r="O39" s="58" t="n">
         <v>504</v>
       </c>
-      <c r="P39" s="51" t="n">
+      <c r="P39" s="59" t="n">
         <v>41737</v>
       </c>
-      <c r="Q39" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="s">
+      <c r="Q39" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="47" t="n">
+      <c r="E40" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="55" t="n">
         <v>57</v>
       </c>
-      <c r="H40" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="49" t="s">
+      <c r="H40" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="N40" s="50" t="n">
+      <c r="N40" s="58" t="n">
         <v>362</v>
       </c>
-      <c r="O40" s="50" t="n">
+      <c r="O40" s="58" t="n">
         <v>439</v>
       </c>
-      <c r="P40" s="51" t="s">
+      <c r="P40" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="Q40" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
+      <c r="Q40" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="47" t="n">
+      <c r="E41" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="55" t="n">
         <v>47</v>
       </c>
-      <c r="H41" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="49" t="s">
+      <c r="H41" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="N41" s="50" t="n">
+      <c r="N41" s="58" t="n">
         <v>883</v>
       </c>
-      <c r="O41" s="50" t="n">
+      <c r="O41" s="58" t="n">
         <v>883</v>
       </c>
-      <c r="P41" s="51" t="n">
+      <c r="P41" s="59" t="n">
         <v>42256</v>
       </c>
-      <c r="Q41" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
+      <c r="Q41" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="47" t="n">
+      <c r="E42" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="55" t="n">
         <v>69</v>
       </c>
-      <c r="H42" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="47" t="n">
+      <c r="H42" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="55" t="n">
         <v>24</v>
       </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="49" t="s">
+      <c r="J42" s="56"/>
+      <c r="K42" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="N42" s="50" t="n">
+      <c r="N42" s="58" t="n">
         <v>395</v>
       </c>
-      <c r="O42" s="50" t="n">
+      <c r="O42" s="58" t="n">
         <v>395</v>
       </c>
-      <c r="P42" s="51" t="n">
+      <c r="P42" s="59" t="n">
         <v>42709</v>
       </c>
-      <c r="Q42" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+      <c r="Q42" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="53" t="n">
+      <c r="E43" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="61" t="n">
         <v>65</v>
       </c>
-      <c r="H43" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="53" t="n">
+      <c r="H43" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="61" t="n">
         <v>120</v>
       </c>
-      <c r="J43" s="54" t="n">
+      <c r="J43" s="25" t="n">
         <v>6.3</v>
       </c>
-      <c r="K43" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" s="23" t="s">
+      <c r="K43" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="N43" s="55" t="n">
+      <c r="N43" s="27" t="n">
         <v>561</v>
       </c>
-      <c r="O43" s="55" t="n">
+      <c r="O43" s="27" t="n">
         <v>642</v>
       </c>
-      <c r="P43" s="25" t="n">
+      <c r="P43" s="28" t="n">
         <v>42604</v>
       </c>
-      <c r="Q43" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="S43" s="35" t="s">
+      <c r="Q43" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="s">
+    <row r="44" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="53" t="n">
+      <c r="E44" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="61" t="n">
         <v>54</v>
       </c>
-      <c r="H44" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="53" t="n">
+      <c r="H44" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="61" t="n">
         <v>60</v>
       </c>
-      <c r="J44" s="54" t="n">
+      <c r="J44" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="K44" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" s="23" t="s">
+      <c r="K44" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="N44" s="55" t="n">
+      <c r="N44" s="27" t="n">
         <v>496</v>
       </c>
-      <c r="O44" s="55" t="n">
+      <c r="O44" s="27" t="n">
         <v>540</v>
       </c>
-      <c r="P44" s="25" t="n">
+      <c r="P44" s="28" t="n">
         <v>42551</v>
       </c>
-      <c r="Q44" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" s="35" t="s">
+      <c r="Q44" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="45" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
+    <row r="45" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="53" t="n">
+      <c r="E45" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="61" t="n">
         <v>79</v>
       </c>
-      <c r="H45" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="53" t="n">
+      <c r="H45" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="61" t="n">
         <v>54</v>
       </c>
-      <c r="J45" s="54" t="n">
+      <c r="J45" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="K45" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="M45" s="23" t="s">
+      <c r="K45" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="N45" s="55" t="n">
+      <c r="N45" s="27" t="n">
         <v>581</v>
       </c>
-      <c r="O45" s="55" t="n">
+      <c r="O45" s="27" t="n">
         <v>637</v>
       </c>
-      <c r="P45" s="25" t="n">
+      <c r="P45" s="28" t="n">
         <v>42149</v>
       </c>
-      <c r="Q45" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="S45" s="35" t="s">
+      <c r="Q45" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="s">
+    <row r="46" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="53" t="n">
+      <c r="E46" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="61" t="n">
         <v>51</v>
       </c>
-      <c r="H46" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="53" t="n">
+      <c r="H46" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="61" t="n">
         <v>120</v>
       </c>
-      <c r="J46" s="54" t="n">
+      <c r="J46" s="25" t="n">
         <v>10.7</v>
       </c>
-      <c r="K46" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" s="23" t="s">
+      <c r="K46" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="N46" s="55" t="n">
+      <c r="N46" s="27" t="n">
         <v>460</v>
       </c>
-      <c r="O46" s="55" t="n">
+      <c r="O46" s="27" t="n">
         <v>558</v>
       </c>
-      <c r="P46" s="25" t="n">
+      <c r="P46" s="28" t="n">
         <v>42653</v>
       </c>
-      <c r="Q46" s="56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
+      <c r="Q46" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" s="53" t="n">
+      <c r="E47" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="61" t="n">
         <v>54</v>
       </c>
-      <c r="H47" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="53" t="n">
+      <c r="H47" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="61" t="n">
         <v>60</v>
       </c>
-      <c r="J47" s="54" t="n">
+      <c r="J47" s="25" t="n">
         <v>8.9</v>
       </c>
-      <c r="K47" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" s="23" t="s">
+      <c r="K47" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="N47" s="55" t="n">
+      <c r="N47" s="27" t="n">
         <v>479</v>
       </c>
-      <c r="O47" s="55" t="n">
+      <c r="O47" s="27" t="n">
         <v>615</v>
       </c>
-      <c r="P47" s="25" t="n">
+      <c r="P47" s="28" t="n">
         <v>42443</v>
       </c>
-      <c r="Q47" s="56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
+      <c r="Q47" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="53" t="n">
+      <c r="E48" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="61" t="n">
         <v>61</v>
       </c>
-      <c r="H48" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" s="53" t="n">
+      <c r="H48" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="61" t="n">
         <v>60</v>
       </c>
-      <c r="J48" s="54" t="n">
+      <c r="J48" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="K48" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="23" t="s">
+      <c r="K48" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="N48" s="55" t="n">
+      <c r="N48" s="27" t="n">
         <v>527</v>
       </c>
-      <c r="O48" s="55" t="n">
+      <c r="O48" s="27" t="n">
         <v>592</v>
       </c>
-      <c r="P48" s="25" t="n">
+      <c r="P48" s="28" t="n">
         <v>42265</v>
       </c>
-      <c r="Q48" s="56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="s">
+      <c r="Q48" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" s="21" t="n">
+      <c r="E49" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="H49" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="21" t="n">
+      <c r="H49" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="J49" s="22" t="n">
+      <c r="J49" s="25" t="n">
         <v>9.6</v>
       </c>
-      <c r="K49" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" s="23" t="n">
+      <c r="K49" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="N49" s="24" t="n">
+      <c r="N49" s="27" t="n">
         <v>430</v>
       </c>
-      <c r="O49" s="24" t="n">
+      <c r="O49" s="27" t="n">
         <v>430</v>
       </c>
-      <c r="P49" s="25" t="s">
+      <c r="P49" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="Q49" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
+      <c r="Q49" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="21" t="n">
+      <c r="E50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="H50" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="21" t="n">
+      <c r="H50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="J50" s="22" t="n">
+      <c r="J50" s="25" t="n">
         <v>9.6</v>
       </c>
-      <c r="K50" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" s="23" t="n">
+      <c r="K50" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" s="26" t="n">
         <v>0.6</v>
       </c>
-      <c r="N50" s="24" t="n">
+      <c r="N50" s="27" t="n">
         <v>423</v>
       </c>
-      <c r="O50" s="24" t="n">
+      <c r="O50" s="27" t="n">
         <v>423</v>
       </c>
-      <c r="P50" s="25" t="s">
+      <c r="P50" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="Q50" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
+      <c r="Q50" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="21" t="n">
+      <c r="E51" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="H51" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" s="21" t="n">
+      <c r="H51" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J51" s="22" t="n">
+      <c r="J51" s="25" t="n">
         <v>7.9</v>
       </c>
-      <c r="K51" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="23" t="n">
+      <c r="K51" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="N51" s="24" t="n">
+      <c r="N51" s="27" t="n">
         <v>310</v>
       </c>
-      <c r="O51" s="24" t="n">
+      <c r="O51" s="27" t="n">
         <v>310</v>
       </c>
-      <c r="P51" s="25" t="s">
+      <c r="P51" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Q51" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
+      <c r="Q51" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="21" t="n">
+      <c r="E52" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="H52" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" s="21" t="n">
+      <c r="H52" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="J52" s="22" t="n">
+      <c r="J52" s="25" t="n">
         <v>9.9</v>
       </c>
-      <c r="K52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M52" s="23" t="n">
+      <c r="K52" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" s="26" t="n">
         <v>0.6</v>
       </c>
-      <c r="N52" s="24" t="n">
+      <c r="N52" s="27" t="n">
         <v>310</v>
       </c>
-      <c r="O52" s="24" t="n">
+      <c r="O52" s="27" t="n">
         <v>310</v>
       </c>
-      <c r="P52" s="25" t="s">
+      <c r="P52" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="Q52" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
+      <c r="Q52" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="21" t="n">
+      <c r="E53" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="H53" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" s="21" t="n">
+      <c r="H53" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="J53" s="22" t="n">
+      <c r="J53" s="25" t="n">
         <v>9.9</v>
       </c>
-      <c r="K53" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M53" s="23" t="n">
+      <c r="K53" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" s="26" t="n">
         <v>0.8</v>
       </c>
-      <c r="N53" s="24" t="n">
+      <c r="N53" s="27" t="n">
         <v>640</v>
       </c>
-      <c r="O53" s="24" t="n">
+      <c r="O53" s="27" t="n">
         <v>640</v>
       </c>
-      <c r="P53" s="25" t="s">
+      <c r="P53" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="Q53" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
+      <c r="Q53" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" s="21" t="n">
+      <c r="E54" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="24" t="n">
         <v>78</v>
       </c>
-      <c r="H54" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="21" t="n">
+      <c r="H54" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="J54" s="22" t="n">
+      <c r="J54" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="K54" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L54" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M54" s="23" t="n">
+      <c r="K54" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="N54" s="24" t="n">
+      <c r="N54" s="27" t="n">
         <v>610</v>
       </c>
-      <c r="O54" s="24" t="n">
+      <c r="O54" s="27" t="n">
         <v>610</v>
       </c>
-      <c r="P54" s="25" t="s">
+      <c r="P54" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Q54" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
+      <c r="Q54" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" s="21" t="n">
+      <c r="E55" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="H55" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" s="21" t="n">
+      <c r="H55" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="J55" s="22" t="n">
+      <c r="J55" s="25" t="n">
         <v>7.1</v>
       </c>
-      <c r="K55" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" s="23" t="n">
+      <c r="K55" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="N55" s="24" t="n">
+      <c r="N55" s="27" t="n">
         <v>279</v>
       </c>
-      <c r="O55" s="24" t="n">
+      <c r="O55" s="27" t="n">
         <v>279</v>
       </c>
-      <c r="P55" s="25" t="s">
+      <c r="P55" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="Q55" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
+      <c r="Q55" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="21" t="n">
+      <c r="E56" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="H56" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" s="21" t="n">
+      <c r="H56" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="J56" s="22" t="n">
+      <c r="J56" s="25" t="n">
         <v>7.1</v>
       </c>
-      <c r="K56" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L56" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" s="23" t="n">
+      <c r="K56" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="26" t="n">
         <v>0.7</v>
       </c>
-      <c r="N56" s="24" t="n">
+      <c r="N56" s="27" t="n">
         <v>420</v>
       </c>
-      <c r="O56" s="24" t="n">
+      <c r="O56" s="27" t="n">
         <v>420</v>
       </c>
-      <c r="P56" s="25" t="s">
+      <c r="P56" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="Q56" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
+      <c r="Q56" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="21" t="n">
+      <c r="E57" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="24" t="n">
         <v>76</v>
       </c>
-      <c r="H57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="21" t="n">
+      <c r="H57" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="J57" s="22" t="n">
+      <c r="J57" s="25" t="n">
         <v>6.9</v>
       </c>
-      <c r="K57" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M57" s="23" t="n">
+      <c r="K57" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="N57" s="24" t="n">
+      <c r="N57" s="27" t="n">
         <v>210</v>
       </c>
-      <c r="O57" s="24" t="n">
+      <c r="O57" s="27" t="n">
         <v>210</v>
       </c>
-      <c r="P57" s="25" t="s">
+      <c r="P57" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Q57" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
+      <c r="Q57" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F58" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" s="21" t="n">
+      <c r="E58" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="24" t="n">
         <v>76</v>
       </c>
-      <c r="H58" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="21" t="n">
+      <c r="H58" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="J58" s="22" t="n">
+      <c r="J58" s="25" t="n">
         <v>6.9</v>
       </c>
-      <c r="K58" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M58" s="23" t="n">
+      <c r="K58" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" s="26" t="n">
         <v>0.6</v>
       </c>
-      <c r="N58" s="24" t="n">
+      <c r="N58" s="27" t="n">
         <v>430</v>
       </c>
-      <c r="O58" s="24" t="n">
+      <c r="O58" s="27" t="n">
         <v>430</v>
       </c>
-      <c r="P58" s="25" t="s">
+      <c r="P58" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Q58" s="26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
+      <c r="Q58" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" s="21" t="n">
+      <c r="E59" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="24" t="n">
         <v>53</v>
       </c>
-      <c r="H59" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" s="21" t="n">
+      <c r="H59" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="24" t="n">
         <v>220</v>
       </c>
-      <c r="J59" s="22"/>
-      <c r="K59" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M59" s="23" t="n">
+      <c r="J59" s="25"/>
+      <c r="K59" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" s="26" t="n">
         <v>0.18</v>
       </c>
-      <c r="N59" s="24" t="n">
+      <c r="N59" s="27" t="n">
         <v>516</v>
       </c>
-      <c r="O59" s="24" t="n">
+      <c r="O59" s="27" t="n">
         <v>625</v>
       </c>
-      <c r="P59" s="25" t="n">
+      <c r="P59" s="28" t="n">
         <v>41610</v>
       </c>
-      <c r="Q59" s="26" t="n">
+      <c r="Q59" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="S59" s="35" t="s">
+      <c r="S59" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
+    <row r="60" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" s="21" t="n">
+      <c r="E60" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="24" t="n">
         <v>64</v>
       </c>
-      <c r="H60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="21" t="n">
+      <c r="H60" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="24" t="n">
         <v>204</v>
       </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="23" t="n">
+      <c r="J60" s="25"/>
+      <c r="K60" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="N60" s="24" t="n">
+      <c r="N60" s="27" t="n">
         <v>378</v>
       </c>
-      <c r="O60" s="24" t="n">
+      <c r="O60" s="27" t="n">
         <v>482</v>
       </c>
-      <c r="P60" s="25" t="n">
+      <c r="P60" s="28" t="n">
         <v>41738</v>
       </c>
-      <c r="Q60" s="26" t="n">
+      <c r="Q60" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="S60" s="35" t="s">
+      <c r="S60" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
+    <row r="61" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" s="21" t="n">
+      <c r="E61" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="24" t="n">
         <v>64</v>
       </c>
-      <c r="H61" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="21" t="n">
+      <c r="H61" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="24" t="n">
         <v>204</v>
       </c>
-      <c r="J61" s="22"/>
-      <c r="K61" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="23" t="n">
+      <c r="J61" s="25"/>
+      <c r="K61" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="26" t="n">
         <v>0.18</v>
       </c>
-      <c r="N61" s="24" t="n">
+      <c r="N61" s="27" t="n">
         <v>371</v>
       </c>
-      <c r="O61" s="24" t="n">
+      <c r="O61" s="27" t="n">
         <v>436</v>
       </c>
-      <c r="P61" s="25" t="n">
+      <c r="P61" s="28" t="n">
         <v>41860</v>
       </c>
-      <c r="Q61" s="26" t="n">
+      <c r="Q61" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="S61" s="35" t="s">
+      <c r="S61" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
+    <row r="62" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="21" t="n">
+      <c r="E62" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="24" t="n">
         <v>67</v>
       </c>
-      <c r="H62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="21" t="n">
+      <c r="H62" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="24" t="n">
         <v>192</v>
       </c>
-      <c r="J62" s="22"/>
-      <c r="K62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="23" t="n">
+      <c r="J62" s="25"/>
+      <c r="K62" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="26" t="n">
         <v>0.2</v>
       </c>
-      <c r="N62" s="24" t="n">
+      <c r="N62" s="27" t="n">
         <v>345</v>
       </c>
-      <c r="O62" s="24" t="n">
+      <c r="O62" s="27" t="n">
         <v>443</v>
       </c>
-      <c r="P62" s="25" t="s">
+      <c r="P62" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="Q62" s="26" t="n">
+      <c r="Q62" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="S62" s="35" t="s">
+      <c r="S62" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="63" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
+    <row r="63" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="21" t="n">
+      <c r="E63" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="H63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="21" t="n">
+      <c r="H63" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="J63" s="22"/>
-      <c r="K63" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" s="24" t="n">
+      <c r="J63" s="25"/>
+      <c r="K63" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="27" t="n">
         <v>398</v>
       </c>
-      <c r="O63" s="24" t="n">
+      <c r="O63" s="27" t="n">
         <v>399</v>
       </c>
-      <c r="P63" s="25" t="s">
+      <c r="P63" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="Q63" s="26" t="n">
+      <c r="Q63" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="S63" s="35" t="s">
+      <c r="S63" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="s">
+    <row r="64" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E64" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" s="21" t="n">
+      <c r="E64" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="H64" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="21" t="n">
+      <c r="H64" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="J64" s="22" t="n">
+      <c r="J64" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="K64" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" s="23" t="n">
+      <c r="K64" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="26" t="n">
         <v>1.1</v>
       </c>
-      <c r="N64" s="24" t="n">
+      <c r="N64" s="27" t="n">
         <v>503</v>
       </c>
-      <c r="O64" s="24" t="n">
+      <c r="O64" s="27" t="n">
         <v>543</v>
       </c>
-      <c r="P64" s="25" t="n">
+      <c r="P64" s="28" t="n">
         <v>41723</v>
       </c>
-      <c r="Q64" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R64" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S64" s="35" t="s">
+      <c r="Q64" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="s">
+    <row r="65" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="21" t="n">
+      <c r="E65" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="H65" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" s="22" t="n">
+      <c r="H65" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="25" t="n">
         <v>8.2</v>
       </c>
-      <c r="K65" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M65" s="23" t="n">
+      <c r="K65" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" s="26" t="n">
         <v>0.4</v>
       </c>
-      <c r="N65" s="24" t="n">
+      <c r="N65" s="27" t="n">
         <v>524</v>
       </c>
-      <c r="O65" s="24" t="n">
+      <c r="O65" s="27" t="n">
         <v>592</v>
       </c>
-      <c r="P65" s="25" t="n">
+      <c r="P65" s="28" t="n">
         <v>41919</v>
       </c>
-      <c r="Q65" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R65" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S65" s="35" t="s">
+      <c r="Q65" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
+    <row r="66" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="21" t="n">
+      <c r="E66" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="24" t="n">
         <v>67</v>
       </c>
-      <c r="H66" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" s="22" t="n">
+      <c r="H66" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="K66" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L66" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M66" s="23" t="n">
+      <c r="K66" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="N66" s="24" t="n">
+      <c r="N66" s="27" t="n">
         <v>412</v>
       </c>
-      <c r="O66" s="24" t="n">
+      <c r="O66" s="27" t="n">
         <v>485</v>
       </c>
-      <c r="P66" s="25" t="n">
+      <c r="P66" s="28" t="n">
         <v>42557</v>
       </c>
-      <c r="Q66" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R66" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S66" s="35" t="s">
+      <c r="Q66" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="s">
+    <row r="67" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G67" s="21" t="n">
+      <c r="E67" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="24" t="n">
         <v>59</v>
       </c>
-      <c r="H67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="21" t="n">
+      <c r="H67" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="J67" s="22" t="n">
+      <c r="J67" s="25" t="n">
         <v>10.7</v>
       </c>
-      <c r="K67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" s="24" t="n">
+      <c r="K67" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="27" t="n">
         <v>676</v>
       </c>
-      <c r="O67" s="24" t="n">
+      <c r="O67" s="27" t="n">
         <v>716</v>
       </c>
-      <c r="P67" s="25" t="n">
+      <c r="P67" s="28" t="n">
         <v>42488</v>
       </c>
-      <c r="Q67" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R67" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S67" s="35" t="s">
+      <c r="Q67" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="s">
+    <row r="68" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F68" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" s="21" t="n">
+      <c r="E68" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="24" t="n">
         <v>59</v>
       </c>
-      <c r="H68" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" s="21" t="n">
+      <c r="H68" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="J68" s="22" t="n">
+      <c r="J68" s="25" t="n">
         <v>10.7</v>
       </c>
-      <c r="K68" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" s="23" t="n">
+      <c r="K68" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="26" t="n">
         <v>1.1</v>
       </c>
-      <c r="N68" s="24" t="n">
+      <c r="N68" s="27" t="n">
         <v>681</v>
       </c>
-      <c r="O68" s="24" t="n">
+      <c r="O68" s="27" t="n">
         <v>705</v>
       </c>
-      <c r="P68" s="25" t="n">
+      <c r="P68" s="28" t="n">
         <v>42488</v>
       </c>
-      <c r="Q68" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R68" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S68" s="35" t="s">
+      <c r="Q68" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="s">
+    <row r="69" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="E69" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F69" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" s="21" t="n">
+      <c r="E69" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="24" t="n">
         <v>68</v>
       </c>
-      <c r="H69" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="21" t="n">
+      <c r="H69" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="24" t="n">
         <v>192</v>
       </c>
-      <c r="J69" s="22" t="n">
+      <c r="J69" s="25" t="n">
         <v>9.5</v>
       </c>
-      <c r="K69" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L69" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" s="23" t="s">
+      <c r="K69" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="N69" s="24" t="n">
+      <c r="N69" s="27" t="n">
         <v>479</v>
       </c>
-      <c r="O69" s="24" t="n">
+      <c r="O69" s="27" t="n">
         <v>520</v>
       </c>
-      <c r="P69" s="57" t="n">
+      <c r="P69" s="62" t="n">
         <v>41792</v>
       </c>
-      <c r="Q69" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="s">
+      <c r="Q69" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E70" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="21" t="n">
+      <c r="E70" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="24" t="n">
         <v>71</v>
       </c>
-      <c r="H70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="21" t="n">
+      <c r="H70" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="24" t="n">
         <v>168</v>
       </c>
-      <c r="J70" s="22" t="n">
+      <c r="J70" s="25" t="n">
         <v>6.1</v>
       </c>
-      <c r="K70" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" s="23" t="s">
+      <c r="K70" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="N70" s="24" t="n">
+      <c r="N70" s="27" t="n">
         <v>382</v>
       </c>
-      <c r="O70" s="24" t="n">
+      <c r="O70" s="27" t="n">
         <v>452</v>
       </c>
-      <c r="P70" s="57" t="s">
+      <c r="P70" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="Q70" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="s">
+      <c r="Q70" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="21" t="n">
+      <c r="E71" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="24" t="n">
         <v>69</v>
       </c>
-      <c r="H71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="21" t="n">
+      <c r="H71" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J71" s="22" t="n">
+      <c r="J71" s="25" t="n">
         <v>7.1</v>
       </c>
-      <c r="K71" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" s="23" t="s">
+      <c r="K71" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="N71" s="24" t="n">
+      <c r="N71" s="27" t="n">
         <v>362</v>
       </c>
-      <c r="O71" s="24" t="n">
+      <c r="O71" s="27" t="n">
         <v>458</v>
       </c>
-      <c r="P71" s="57" t="n">
+      <c r="P71" s="62" t="n">
         <v>41701</v>
       </c>
-      <c r="Q71" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="s">
+      <c r="Q71" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F72" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" s="21" t="n">
+      <c r="E72" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="H72" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" s="21" t="n">
+      <c r="H72" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="24" t="n">
         <v>396</v>
       </c>
-      <c r="J72" s="22" t="n">
+      <c r="J72" s="25" t="n">
         <v>5.9</v>
       </c>
-      <c r="K72" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L72" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M72" s="23" t="s">
+      <c r="K72" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="N72" s="24" t="n">
+      <c r="N72" s="27" t="n">
         <v>336</v>
       </c>
-      <c r="O72" s="24" t="n">
+      <c r="O72" s="27" t="n">
         <v>390</v>
       </c>
-      <c r="P72" s="57" t="s">
+      <c r="P72" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="Q72" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="s">
+      <c r="Q72" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="21" t="n">
+      <c r="E73" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="H73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" s="21" t="n">
+      <c r="H73" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="24" t="n">
         <v>132</v>
       </c>
-      <c r="J73" s="22" t="n">
+      <c r="J73" s="25" t="n">
         <v>10.1</v>
       </c>
-      <c r="K73" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" s="23" t="s">
+      <c r="K73" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="N73" s="24" t="n">
+      <c r="N73" s="27" t="n">
         <v>469</v>
       </c>
-      <c r="O73" s="24" t="n">
+      <c r="O73" s="27" t="n">
         <v>531</v>
       </c>
-      <c r="P73" s="57" t="s">
+      <c r="P73" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="Q73" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18" t="s">
+      <c r="Q73" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E74" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" s="21" t="n">
+      <c r="E74" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="H74" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="21" t="n">
+      <c r="H74" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="24" t="n">
         <v>240</v>
       </c>
-      <c r="J74" s="22" t="n">
+      <c r="J74" s="25" t="n">
         <v>8.5</v>
       </c>
-      <c r="K74" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L74" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M74" s="23" t="s">
+      <c r="K74" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="N74" s="24" t="n">
+      <c r="N74" s="27" t="n">
         <v>527</v>
       </c>
-      <c r="O74" s="24" t="n">
+      <c r="O74" s="27" t="n">
         <v>619</v>
       </c>
-      <c r="P74" s="57" t="s">
+      <c r="P74" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="Q74" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18" t="s">
+      <c r="Q74" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="E75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="21" t="n">
+      <c r="E75" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="24" t="n">
         <v>78</v>
       </c>
-      <c r="H75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" s="21" t="n">
+      <c r="H75" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="24" t="n">
         <v>480</v>
       </c>
-      <c r="J75" s="22" t="n">
+      <c r="J75" s="25" t="n">
         <v>9.3</v>
       </c>
-      <c r="K75" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" s="23" t="s">
+      <c r="K75" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="N75" s="24" t="n">
+      <c r="N75" s="27" t="n">
         <v>343</v>
       </c>
-      <c r="O75" s="24" t="n">
+      <c r="O75" s="27" t="n">
         <v>390</v>
       </c>
-      <c r="P75" s="57" t="s">
+      <c r="P75" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="Q75" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18" t="s">
+      <c r="Q75" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="E76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G76" s="21" t="n">
+      <c r="E76" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="H76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" s="21" t="n">
+      <c r="H76" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="24" t="n">
         <v>168</v>
       </c>
-      <c r="J76" s="22" t="n">
+      <c r="J76" s="25" t="n">
         <v>6.5</v>
       </c>
-      <c r="K76" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" s="23" t="s">
+      <c r="K76" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="N76" s="24" t="n">
+      <c r="N76" s="27" t="n">
         <v>491</v>
       </c>
-      <c r="O76" s="24" t="n">
+      <c r="O76" s="27" t="n">
         <v>534</v>
       </c>
-      <c r="P76" s="57" t="s">
+      <c r="P76" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="Q76" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18" t="s">
+      <c r="Q76" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E77" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G77" s="21" t="n">
+      <c r="E77" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="24" t="n">
         <v>57</v>
       </c>
-      <c r="H77" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" s="21" t="n">
+      <c r="H77" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="24" t="n">
         <v>120</v>
       </c>
-      <c r="J77" s="22" t="n">
+      <c r="J77" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="K77" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L77" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" s="23" t="s">
+      <c r="K77" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="N77" s="24" t="n">
+      <c r="N77" s="27" t="n">
         <v>381</v>
       </c>
-      <c r="O77" s="24" t="n">
+      <c r="O77" s="27" t="n">
         <v>449</v>
       </c>
-      <c r="P77" s="57" t="n">
+      <c r="P77" s="62" t="n">
         <v>41949</v>
       </c>
-      <c r="Q77" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18" t="s">
+      <c r="Q77" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E78" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="21" t="n">
+      <c r="E78" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="24" t="n">
         <v>64</v>
       </c>
-      <c r="H78" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="21" t="n">
+      <c r="H78" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="24" t="n">
         <v>408</v>
       </c>
-      <c r="J78" s="22" t="n">
+      <c r="J78" s="25" t="n">
         <v>8.7</v>
       </c>
-      <c r="K78" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L78" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" s="23" t="s">
+      <c r="K78" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="N78" s="24" t="n">
+      <c r="N78" s="27" t="n">
         <v>406</v>
       </c>
-      <c r="O78" s="24" t="n">
+      <c r="O78" s="27" t="n">
         <v>447</v>
       </c>
-      <c r="P78" s="57" t="s">
+      <c r="P78" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="Q78" s="26" t="n">
+      <c r="Q78" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E79" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G79" s="21" t="n">
+      <c r="E79" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" s="24" t="n">
         <v>70</v>
       </c>
-      <c r="H79" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="21" t="n">
+      <c r="H79" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J79" s="22" t="n">
+      <c r="J79" s="25" t="n">
         <v>5.9</v>
       </c>
-      <c r="K79" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" s="23" t="s">
+      <c r="K79" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="N79" s="24" t="n">
+      <c r="N79" s="27" t="n">
         <v>379</v>
       </c>
-      <c r="O79" s="24" t="n">
+      <c r="O79" s="27" t="n">
         <v>526</v>
       </c>
-      <c r="P79" s="57" t="n">
+      <c r="P79" s="62" t="n">
         <v>41679</v>
       </c>
-      <c r="Q79" s="26" t="n">
+      <c r="Q79" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5815,52 +5843,52 @@
       <c r="A80" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E80" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F80" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" s="21" t="n">
+      <c r="E80" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" s="24" t="n">
         <v>67</v>
       </c>
-      <c r="H80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="21" t="n">
+      <c r="H80" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J80" s="22" t="n">
+      <c r="J80" s="25" t="n">
         <v>6.3</v>
       </c>
-      <c r="K80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" s="23" t="s">
+      <c r="K80" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="N80" s="24" t="n">
+      <c r="N80" s="27" t="n">
         <v>421</v>
       </c>
-      <c r="O80" s="24" t="n">
+      <c r="O80" s="27" t="n">
         <v>473</v>
       </c>
-      <c r="P80" s="57" t="n">
+      <c r="P80" s="62" t="n">
         <v>41921</v>
       </c>
-      <c r="Q80" s="26" t="n">
+      <c r="Q80" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5868,52 +5896,52 @@
       <c r="A81" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E81" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F81" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" s="21" t="n">
+      <c r="E81" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" s="24" t="n">
         <v>75</v>
       </c>
-      <c r="H81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" s="21" t="n">
+      <c r="H81" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" s="24" t="n">
         <v>240</v>
       </c>
-      <c r="J81" s="22" t="n">
+      <c r="J81" s="25" t="n">
         <v>6.5</v>
       </c>
-      <c r="K81" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" s="23" t="s">
+      <c r="K81" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="N81" s="24" t="n">
+      <c r="N81" s="27" t="n">
         <v>321</v>
       </c>
-      <c r="O81" s="24" t="n">
+      <c r="O81" s="27" t="n">
         <v>341</v>
       </c>
-      <c r="P81" s="57" t="n">
+      <c r="P81" s="62" t="n">
         <v>41861</v>
       </c>
-      <c r="Q81" s="26" t="n">
+      <c r="Q81" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5921,52 +5949,52 @@
       <c r="A82" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E82" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="21" t="n">
+      <c r="E82" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="24" t="n">
         <v>68</v>
       </c>
-      <c r="H82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" s="21" t="n">
+      <c r="H82" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J82" s="22" t="n">
+      <c r="J82" s="25" t="n">
         <v>7.7</v>
       </c>
-      <c r="K82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" s="23" t="s">
+      <c r="K82" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="N82" s="24" t="n">
+      <c r="N82" s="27" t="n">
         <v>388</v>
       </c>
-      <c r="O82" s="24" t="n">
+      <c r="O82" s="27" t="n">
         <v>423</v>
       </c>
-      <c r="P82" s="57" t="n">
+      <c r="P82" s="62" t="n">
         <v>41708</v>
       </c>
-      <c r="Q82" s="26" t="n">
+      <c r="Q82" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,52 +6002,52 @@
       <c r="A83" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="E83" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="21" t="n">
+      <c r="E83" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="24" t="n">
         <v>70</v>
       </c>
-      <c r="H83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" s="21" t="n">
+      <c r="H83" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" s="24" t="n">
         <v>240</v>
       </c>
-      <c r="J83" s="22" t="n">
+      <c r="J83" s="25" t="n">
         <v>8.4</v>
       </c>
-      <c r="K83" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" s="23" t="s">
+      <c r="K83" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="N83" s="24" t="n">
+      <c r="N83" s="27" t="n">
         <v>468</v>
       </c>
-      <c r="O83" s="24" t="n">
+      <c r="O83" s="27" t="n">
         <v>519</v>
       </c>
-      <c r="P83" s="57" t="n">
+      <c r="P83" s="62" t="n">
         <v>41861</v>
       </c>
-      <c r="Q83" s="26" t="n">
+      <c r="Q83" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6027,52 +6055,52 @@
       <c r="A84" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="E84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" s="21" t="n">
+      <c r="E84" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="H84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" s="21" t="n">
+      <c r="H84" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J84" s="22" t="n">
+      <c r="J84" s="25" t="n">
         <v>9.4</v>
       </c>
-      <c r="K84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" s="23" t="s">
+      <c r="K84" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="N84" s="24" t="n">
+      <c r="N84" s="27" t="n">
         <v>511</v>
       </c>
-      <c r="O84" s="24" t="n">
+      <c r="O84" s="27" t="n">
         <v>560</v>
       </c>
-      <c r="P84" s="57" t="s">
+      <c r="P84" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="Q84" s="26" t="n">
+      <c r="Q84" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,52 +6108,52 @@
       <c r="A85" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G85" s="21" t="n">
+      <c r="E85" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" s="24" t="n">
         <v>57</v>
       </c>
-      <c r="H85" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" s="21" t="n">
+      <c r="H85" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J85" s="22" t="n">
+      <c r="J85" s="25" t="n">
         <v>6.7</v>
       </c>
-      <c r="K85" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" s="23" t="s">
+      <c r="K85" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="N85" s="24" t="n">
+      <c r="N85" s="27" t="n">
         <v>416</v>
       </c>
-      <c r="O85" s="24" t="n">
+      <c r="O85" s="27" t="n">
         <v>474</v>
       </c>
-      <c r="P85" s="57" t="s">
+      <c r="P85" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="Q85" s="26" t="n">
+      <c r="Q85" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6133,52 +6161,52 @@
       <c r="A86" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="E86" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="21" t="n">
+      <c r="E86" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="H86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" s="21" t="n">
+      <c r="H86" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J86" s="22" t="n">
+      <c r="J86" s="25" t="n">
         <v>5.8</v>
       </c>
-      <c r="K86" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" s="23" t="s">
+      <c r="K86" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="N86" s="24" t="n">
+      <c r="N86" s="27" t="n">
         <v>477</v>
       </c>
-      <c r="O86" s="24" t="n">
+      <c r="O86" s="27" t="n">
         <v>539</v>
       </c>
-      <c r="P86" s="57" t="s">
+      <c r="P86" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="Q86" s="26" t="n">
+      <c r="Q86" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6186,52 +6214,52 @@
       <c r="A87" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E87" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" s="21" t="n">
+      <c r="E87" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" s="24" t="n">
         <v>66</v>
       </c>
-      <c r="H87" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" s="21" t="n">
+      <c r="H87" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" s="24" t="n">
         <v>264</v>
       </c>
-      <c r="J87" s="22" t="n">
+      <c r="J87" s="25" t="n">
         <v>8.2</v>
       </c>
-      <c r="K87" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L87" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" s="23" t="s">
+      <c r="K87" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="N87" s="24" t="n">
+      <c r="N87" s="27" t="n">
         <v>442</v>
       </c>
-      <c r="O87" s="24" t="n">
+      <c r="O87" s="27" t="n">
         <v>566</v>
       </c>
-      <c r="P87" s="57" t="n">
+      <c r="P87" s="62" t="n">
         <v>41984</v>
       </c>
-      <c r="Q87" s="26" t="n">
+      <c r="Q87" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,52 +6267,52 @@
       <c r="A88" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="E88" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G88" s="21" t="n">
+      <c r="E88" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" s="24" t="n">
         <v>68</v>
       </c>
-      <c r="H88" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" s="21" t="n">
+      <c r="H88" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" s="24" t="n">
         <v>84</v>
       </c>
-      <c r="J88" s="22" t="n">
+      <c r="J88" s="25" t="n">
         <v>7.6</v>
       </c>
-      <c r="K88" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L88" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M88" s="23" t="s">
+      <c r="K88" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="N88" s="24" t="n">
+      <c r="N88" s="27" t="n">
         <v>376</v>
       </c>
-      <c r="O88" s="24" t="n">
+      <c r="O88" s="27" t="n">
         <v>423</v>
       </c>
-      <c r="P88" s="57" t="s">
+      <c r="P88" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="Q88" s="26" t="n">
+      <c r="Q88" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,52 +6320,52 @@
       <c r="A89" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E89" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F89" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="21" t="n">
+      <c r="E89" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="24" t="n">
         <v>71</v>
       </c>
-      <c r="H89" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" s="21" t="n">
+      <c r="H89" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" s="24" t="n">
         <v>288</v>
       </c>
-      <c r="J89" s="22" t="n">
+      <c r="J89" s="25" t="n">
         <v>6.7</v>
       </c>
-      <c r="K89" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="23" t="s">
+      <c r="K89" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="N89" s="24" t="n">
+      <c r="N89" s="27" t="n">
         <v>504</v>
       </c>
-      <c r="O89" s="24" t="n">
+      <c r="O89" s="27" t="n">
         <v>645</v>
       </c>
-      <c r="P89" s="57" t="s">
+      <c r="P89" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="Q89" s="26" t="n">
+      <c r="Q89" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6345,52 +6373,52 @@
       <c r="A90" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G90" s="21" t="n">
+      <c r="E90" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" s="24" t="n">
         <v>69</v>
       </c>
-      <c r="H90" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" s="21" t="n">
+      <c r="H90" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="24" t="n">
         <v>396</v>
       </c>
-      <c r="J90" s="22" t="n">
+      <c r="J90" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="K90" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" s="23" t="s">
+      <c r="K90" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="N90" s="24" t="n">
+      <c r="N90" s="27" t="n">
         <v>360</v>
       </c>
-      <c r="O90" s="24" t="n">
+      <c r="O90" s="27" t="n">
         <v>399</v>
       </c>
-      <c r="P90" s="57" t="n">
+      <c r="P90" s="62" t="n">
         <v>42066</v>
       </c>
-      <c r="Q90" s="26" t="n">
+      <c r="Q90" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,58 +6426,58 @@
       <c r="A91" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="E91" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="21" t="n">
+      <c r="E91" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="H91" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" s="21" t="n">
+      <c r="H91" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="24" t="n">
         <v>96</v>
       </c>
-      <c r="J91" s="22" t="n">
+      <c r="J91" s="25" t="n">
         <v>7.1</v>
       </c>
-      <c r="K91" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L91" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M91" s="23" t="n">
+      <c r="K91" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" s="26" t="n">
         <v>0.16</v>
       </c>
-      <c r="N91" s="24" t="n">
+      <c r="N91" s="27" t="n">
         <v>420</v>
       </c>
-      <c r="O91" s="24" t="n">
+      <c r="O91" s="27" t="n">
         <v>493</v>
       </c>
-      <c r="P91" s="25" t="s">
+      <c r="P91" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="Q91" s="26" t="n">
+      <c r="Q91" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R91" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S91" s="58" t="s">
+      <c r="S91" s="63" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6457,52 +6485,52 @@
       <c r="A92" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="21" t="n">
+      <c r="E92" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="24" t="n">
         <v>41</v>
       </c>
-      <c r="H92" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" s="21" t="n">
+      <c r="H92" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="J92" s="22" t="n">
+      <c r="J92" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="K92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" s="23" t="n">
+      <c r="K92" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" s="26" t="n">
         <v>0.46</v>
       </c>
-      <c r="N92" s="24" t="n">
+      <c r="N92" s="27" t="n">
         <v>383</v>
       </c>
-      <c r="O92" s="24" t="n">
+      <c r="O92" s="27" t="n">
         <v>552</v>
       </c>
-      <c r="P92" s="25" t="n">
+      <c r="P92" s="28" t="n">
         <v>42656</v>
       </c>
-      <c r="Q92" s="26" t="n">
+      <c r="Q92" s="29" t="n">
         <v>2</v>
       </c>
       <c r="R92" s="0" t="n">
@@ -6513,50 +6541,50 @@
       <c r="A93" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="21" t="n">
+      <c r="E93" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="24" t="n">
         <v>56</v>
       </c>
-      <c r="H93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" s="21" t="n">
+      <c r="H93" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="J93" s="22"/>
-      <c r="K93" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" s="23" t="n">
+      <c r="J93" s="25"/>
+      <c r="K93" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" s="26" t="n">
         <v>0.36</v>
       </c>
-      <c r="N93" s="24" t="n">
+      <c r="N93" s="27" t="n">
         <v>347</v>
       </c>
-      <c r="O93" s="24" t="n">
+      <c r="O93" s="27" t="n">
         <v>425</v>
       </c>
-      <c r="P93" s="25" t="n">
+      <c r="P93" s="28" t="n">
         <v>42958</v>
       </c>
-      <c r="Q93" s="26" t="n">
+      <c r="Q93" s="29" t="n">
         <v>2</v>
       </c>
       <c r="R93" s="0" t="n">
@@ -6567,52 +6595,52 @@
       <c r="A94" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E94" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F94" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" s="21" t="n">
+      <c r="E94" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="H94" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" s="21" t="n">
+      <c r="H94" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="24" t="n">
         <v>132</v>
       </c>
-      <c r="J94" s="22" t="n">
+      <c r="J94" s="25" t="n">
         <v>10.5</v>
       </c>
-      <c r="K94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" s="23" t="n">
+      <c r="K94" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" s="26" t="n">
         <v>0.4</v>
       </c>
-      <c r="N94" s="24" t="n">
+      <c r="N94" s="27" t="n">
         <v>381</v>
       </c>
-      <c r="O94" s="24" t="n">
+      <c r="O94" s="27" t="n">
         <v>405</v>
       </c>
-      <c r="P94" s="25" t="s">
+      <c r="P94" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="Q94" s="26" t="n">
+      <c r="Q94" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R94" s="0" t="n">
@@ -6623,50 +6651,50 @@
       <c r="A95" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="E95" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="18" t="n">
+      <c r="E95" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="20" t="n">
         <v>59</v>
       </c>
-      <c r="H95" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" s="18" t="n">
+      <c r="H95" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="J95" s="18" t="n">
+      <c r="J95" s="64" t="n">
         <v>9.4</v>
       </c>
-      <c r="K95" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L95" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M95" s="59" t="n">
+      <c r="K95" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" s="64" t="n">
         <v>0.54</v>
       </c>
-      <c r="N95" s="18" t="n">
+      <c r="N95" s="64" t="n">
         <v>327</v>
       </c>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18" t="s">
+      <c r="O95" s="64"/>
+      <c r="P95" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="Q95" s="18" t="n">
+      <c r="Q95" s="64" t="n">
         <v>3</v>
       </c>
       <c r="R95" s="0" t="n">
@@ -6677,52 +6705,52 @@
       <c r="A96" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E96" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F96" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G96" s="21" t="n">
+      <c r="E96" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="H96" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" s="21" t="n">
+      <c r="H96" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="24" t="n">
         <v>132</v>
       </c>
-      <c r="J96" s="22" t="n">
+      <c r="J96" s="25" t="n">
         <v>6.7</v>
       </c>
-      <c r="K96" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L96" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" s="23" t="n">
+      <c r="K96" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" s="26" t="n">
         <v>0.42</v>
       </c>
-      <c r="N96" s="24" t="n">
+      <c r="N96" s="27" t="n">
         <v>309</v>
       </c>
-      <c r="O96" s="24" t="n">
+      <c r="O96" s="27" t="n">
         <v>309</v>
       </c>
-      <c r="P96" s="25" t="s">
+      <c r="P96" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="Q96" s="26" t="n">
+      <c r="Q96" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R96" s="0" t="n">
@@ -6733,50 +6761,50 @@
       <c r="A97" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E97" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" s="21" t="n">
+      <c r="E97" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="H97" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" s="21" t="n">
+      <c r="H97" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="24" t="n">
         <v>240</v>
       </c>
-      <c r="J97" s="22" t="n">
+      <c r="J97" s="25" t="n">
         <v>8.6</v>
       </c>
-      <c r="K97" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L97" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" s="23" t="n">
+      <c r="K97" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" s="26" t="n">
         <v>0.8</v>
       </c>
-      <c r="N97" s="24" t="n">
+      <c r="N97" s="27" t="n">
         <v>670</v>
       </c>
-      <c r="O97" s="24"/>
-      <c r="P97" s="25" t="n">
+      <c r="O97" s="27"/>
+      <c r="P97" s="28" t="n">
         <v>40522</v>
       </c>
-      <c r="Q97" s="26" t="n">
+      <c r="Q97" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R97" s="0" t="n">
@@ -6787,50 +6815,50 @@
       <c r="A98" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E98" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G98" s="18" t="n">
+      <c r="E98" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" s="20" t="n">
         <v>52</v>
       </c>
-      <c r="H98" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" s="22"/>
-      <c r="K98" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L98" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" s="60" t="n">
+      <c r="H98" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" s="25"/>
+      <c r="K98" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" s="65" t="n">
         <v>0.1</v>
       </c>
-      <c r="N98" s="61" t="n">
+      <c r="N98" s="66" t="n">
         <v>310</v>
       </c>
-      <c r="O98" s="61" t="n">
+      <c r="O98" s="66" t="n">
         <v>435</v>
       </c>
-      <c r="P98" s="25" t="s">
+      <c r="P98" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="Q98" s="26" t="n">
+      <c r="Q98" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R98" s="0" t="n">
@@ -6841,50 +6869,50 @@
       <c r="A99" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="E99" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F99" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" s="21" t="n">
+      <c r="E99" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="H99" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" s="22"/>
-      <c r="K99" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L99" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" s="60" t="n">
+      <c r="H99" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" s="25"/>
+      <c r="K99" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" s="65" t="n">
         <v>0.8</v>
       </c>
-      <c r="N99" s="61" t="n">
+      <c r="N99" s="66" t="n">
         <v>534</v>
       </c>
-      <c r="O99" s="61" t="n">
+      <c r="O99" s="66" t="n">
         <v>575</v>
       </c>
-      <c r="P99" s="25" t="s">
+      <c r="P99" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="Q99" s="26" t="n">
+      <c r="Q99" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R99" s="0" t="n">
@@ -6895,50 +6923,50 @@
       <c r="A100" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E100" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G100" s="21" t="n">
+      <c r="E100" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="H100" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" s="21" t="n">
+      <c r="H100" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J100" s="22"/>
-      <c r="K100" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" s="60" t="n">
+      <c r="J100" s="25"/>
+      <c r="K100" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" s="65" t="n">
         <v>0.6</v>
       </c>
-      <c r="N100" s="61" t="n">
+      <c r="N100" s="66" t="n">
         <v>388</v>
       </c>
-      <c r="O100" s="61" t="n">
+      <c r="O100" s="66" t="n">
         <v>505</v>
       </c>
-      <c r="P100" s="25" t="s">
+      <c r="P100" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="Q100" s="26" t="n">
+      <c r="Q100" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R100" s="0" t="n">
@@ -6949,50 +6977,50 @@
       <c r="A101" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="E101" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G101" s="21" t="n">
+      <c r="E101" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" s="24" t="n">
         <v>57</v>
       </c>
-      <c r="H101" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" s="21" t="n">
+      <c r="H101" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="J101" s="22"/>
-      <c r="K101" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" s="60" t="n">
+      <c r="J101" s="25"/>
+      <c r="K101" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" s="65" t="n">
         <v>0.6</v>
       </c>
-      <c r="N101" s="61" t="n">
+      <c r="N101" s="66" t="n">
         <v>437</v>
       </c>
-      <c r="O101" s="61" t="n">
+      <c r="O101" s="66" t="n">
         <v>506</v>
       </c>
-      <c r="P101" s="25" t="s">
+      <c r="P101" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="Q101" s="26" t="n">
+      <c r="Q101" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R101" s="0" t="n">
@@ -7003,48 +7031,48 @@
       <c r="A102" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="E102" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G102" s="21" t="n">
+      <c r="E102" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="H102" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" s="21"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L102" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" s="60" t="n">
+      <c r="H102" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" s="24"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" s="65" t="n">
         <v>0.5</v>
       </c>
-      <c r="N102" s="61" t="n">
+      <c r="N102" s="66" t="n">
         <v>563</v>
       </c>
-      <c r="O102" s="61" t="n">
+      <c r="O102" s="66" t="n">
         <v>563</v>
       </c>
-      <c r="P102" s="25" t="n">
+      <c r="P102" s="28" t="n">
         <v>42584</v>
       </c>
-      <c r="Q102" s="26" t="n">
+      <c r="Q102" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R102" s="0" t="n">
@@ -7055,50 +7083,50 @@
       <c r="A103" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="E103" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F103" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G103" s="18" t="n">
+      <c r="E103" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" s="20" t="n">
         <v>57</v>
       </c>
-      <c r="H103" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" s="18" t="n">
+      <c r="H103" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L103" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" s="62" t="n">
+      <c r="J103" s="64"/>
+      <c r="K103" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" s="67" t="n">
         <v>328</v>
       </c>
-      <c r="O103" s="62" t="n">
+      <c r="O103" s="67" t="n">
         <v>361</v>
       </c>
-      <c r="P103" s="63" t="n">
+      <c r="P103" s="68" t="n">
         <v>42711</v>
       </c>
-      <c r="Q103" s="64" t="n">
+      <c r="Q103" s="69" t="n">
         <v>3</v>
       </c>
       <c r="R103" s="0" t="n">
@@ -7109,48 +7137,48 @@
       <c r="A104" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="E104" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="21" t="n">
+      <c r="E104" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="H104" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" s="21"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L104" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" s="23" t="n">
+      <c r="H104" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" s="24"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="N104" s="24" t="n">
+      <c r="N104" s="27" t="n">
         <v>384</v>
       </c>
-      <c r="O104" s="24" t="n">
+      <c r="O104" s="27" t="n">
         <v>424</v>
       </c>
-      <c r="P104" s="25" t="s">
+      <c r="P104" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="Q104" s="26" t="n">
+      <c r="Q104" s="29" t="n">
         <v>3</v>
       </c>
       <c r="R104" s="0" t="n">
@@ -7161,52 +7189,52 @@
       <c r="A105" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="E105" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G105" s="21" t="n">
+      <c r="E105" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" s="24" t="n">
         <v>57</v>
       </c>
-      <c r="H105" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="21" t="n">
+      <c r="H105" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" s="24" t="n">
         <v>120</v>
       </c>
-      <c r="J105" s="22" t="n">
+      <c r="J105" s="25" t="n">
         <v>7.2</v>
       </c>
-      <c r="K105" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L105" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" s="23" t="n">
+      <c r="K105" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" s="26" t="n">
         <v>0.1</v>
       </c>
-      <c r="N105" s="24" t="n">
+      <c r="N105" s="27" t="n">
         <v>364</v>
       </c>
-      <c r="O105" s="24" t="n">
+      <c r="O105" s="27" t="n">
         <v>463</v>
       </c>
-      <c r="P105" s="25" t="n">
+      <c r="P105" s="28" t="n">
         <v>42082</v>
       </c>
-      <c r="Q105" s="26" t="n">
+      <c r="Q105" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R105" s="0" t="n">
@@ -7217,52 +7245,52 @@
       <c r="A106" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E106" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="21" t="n">
+      <c r="E106" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="H106" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" s="21" t="n">
+      <c r="H106" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="J106" s="22" t="n">
+      <c r="J106" s="25" t="n">
         <v>6.2</v>
       </c>
-      <c r="K106" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L106" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M106" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" s="24" t="n">
+      <c r="K106" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" s="27" t="n">
         <v>681</v>
       </c>
-      <c r="O106" s="24" t="n">
+      <c r="O106" s="27" t="n">
         <v>681</v>
       </c>
-      <c r="P106" s="25" t="n">
+      <c r="P106" s="28" t="n">
         <v>42094</v>
       </c>
-      <c r="Q106" s="26" t="n">
+      <c r="Q106" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R106" s="0" t="n">
@@ -7273,52 +7301,52 @@
       <c r="A107" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="E107" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="21" t="n">
+      <c r="E107" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="H107" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" s="21" t="n">
+      <c r="H107" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" s="24" t="n">
         <v>84</v>
       </c>
-      <c r="J107" s="22" t="n">
+      <c r="J107" s="25" t="n">
         <v>7.7</v>
       </c>
-      <c r="K107" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L107" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" s="24" t="n">
+      <c r="K107" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" s="27" t="n">
         <v>368</v>
       </c>
-      <c r="O107" s="24" t="n">
+      <c r="O107" s="27" t="n">
         <v>512</v>
       </c>
-      <c r="P107" s="25" t="n">
+      <c r="P107" s="28" t="n">
         <v>42348</v>
       </c>
-      <c r="Q107" s="26" t="n">
+      <c r="Q107" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R107" s="0" t="n">
@@ -7329,52 +7357,52 @@
       <c r="A108" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E108" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F108" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="21" t="n">
+      <c r="E108" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="H108" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="21" t="n">
+      <c r="H108" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" s="24" t="n">
         <v>84</v>
       </c>
-      <c r="J108" s="22" t="n">
+      <c r="J108" s="25" t="n">
         <v>7.7</v>
       </c>
-      <c r="K108" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L108" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="24" t="n">
+      <c r="K108" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="27" t="n">
         <v>692</v>
       </c>
-      <c r="O108" s="24" t="n">
+      <c r="O108" s="27" t="n">
         <v>692</v>
       </c>
-      <c r="P108" s="25" t="n">
+      <c r="P108" s="28" t="n">
         <v>42353</v>
       </c>
-      <c r="Q108" s="26" t="n">
+      <c r="Q108" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R108" s="0" t="n">
@@ -7385,52 +7413,52 @@
       <c r="A109" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="E109" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F109" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" s="21" t="n">
+      <c r="E109" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="H109" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" s="21" t="n">
+      <c r="H109" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="24" t="n">
         <v>225</v>
       </c>
-      <c r="J109" s="22" t="n">
+      <c r="J109" s="25" t="n">
         <v>8.1</v>
       </c>
-      <c r="K109" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L109" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M109" s="23" t="n">
+      <c r="K109" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" s="26" t="n">
         <v>0.4</v>
       </c>
-      <c r="N109" s="24" t="n">
+      <c r="N109" s="27" t="n">
         <v>604</v>
       </c>
-      <c r="O109" s="24" t="n">
+      <c r="O109" s="27" t="n">
         <v>604</v>
       </c>
-      <c r="P109" s="25" t="n">
+      <c r="P109" s="28" t="n">
         <v>42249</v>
       </c>
-      <c r="Q109" s="26" t="n">
+      <c r="Q109" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R109" s="0" t="n">
@@ -7441,52 +7469,52 @@
       <c r="A110" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="E110" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G110" s="21" t="n">
+      <c r="E110" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="H110" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="21" t="n">
+      <c r="H110" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="24" t="n">
         <v>120</v>
       </c>
-      <c r="J110" s="22" t="n">
+      <c r="J110" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="K110" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L110" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" s="23" t="n">
+      <c r="K110" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="26" t="n">
         <v>0.1</v>
       </c>
-      <c r="N110" s="24" t="n">
+      <c r="N110" s="27" t="n">
         <v>307</v>
       </c>
-      <c r="O110" s="24" t="n">
+      <c r="O110" s="27" t="n">
         <v>385</v>
       </c>
-      <c r="P110" s="25" t="n">
+      <c r="P110" s="28" t="n">
         <v>42236</v>
       </c>
-      <c r="Q110" s="26" t="n">
+      <c r="Q110" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R110" s="0" t="n">
@@ -7497,52 +7525,52 @@
       <c r="A111" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="E111" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F111" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G111" s="21" t="n">
+      <c r="E111" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F111" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="H111" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="21" t="n">
+      <c r="H111" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" s="24" t="n">
         <v>120</v>
       </c>
-      <c r="J111" s="22" t="n">
+      <c r="J111" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="K111" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L111" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" s="23" t="n">
+      <c r="K111" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" s="26" t="n">
         <v>0.2</v>
       </c>
-      <c r="N111" s="24" t="n">
+      <c r="N111" s="27" t="n">
         <v>341</v>
       </c>
-      <c r="O111" s="24" t="n">
+      <c r="O111" s="27" t="n">
         <v>390</v>
       </c>
-      <c r="P111" s="25" t="n">
+      <c r="P111" s="28" t="n">
         <v>42238</v>
       </c>
-      <c r="Q111" s="26" t="n">
+      <c r="Q111" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R111" s="0" t="n">
@@ -7553,59 +7581,58 @@
       <c r="A112" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="E112" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G112" s="21" t="n">
+      <c r="E112" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="H112" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" s="21" t="n">
+      <c r="H112" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="J112" s="22" t="n">
+      <c r="J112" s="25" t="n">
         <v>8.2</v>
       </c>
-      <c r="K112" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L112" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M112" s="23" t="n">
+      <c r="K112" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="N112" s="24" t="n">
+      <c r="N112" s="27" t="n">
         <v>402</v>
       </c>
-      <c r="O112" s="24" t="n">
+      <c r="O112" s="27" t="n">
         <v>402</v>
       </c>
-      <c r="P112" s="25" t="n">
+      <c r="P112" s="28" t="n">
         <v>42352</v>
       </c>
-      <c r="Q112" s="26" t="n">
+      <c r="Q112" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R112" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
